--- a/OnBoard/output/trust/catch/Catch_Trust_75.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_75.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Octopus vulgaris</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>OCTOVUL</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G10">
-        <v>4.999</v>
+        <v>0.168</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -806,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.168</v>
+        <v>0.055</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Parapenaeus longirostris</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.055</v>
+        <v>0.279</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parapenaeus longirostris</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.279</v>
+        <v>3.102</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G14">
-        <v>3.102</v>
+        <v>0.923</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.923</v>
+        <v>0.122</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.122</v>
+        <v>0.127</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.127</v>
+        <v>0.984</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1088,24 +1088,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.984</v>
+        <v>0.076</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1134,19 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.076</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.9400000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Citharus linguatula</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.07099999999999999</v>
+        <v>0.654</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1298,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Galeodea echinophora</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>GALEECH</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.654</v>
+        <v>0.329</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1339,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Galeodea echinophora</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GALEECH</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.329</v>
+        <v>0.031</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Merluccius merluccius</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.031</v>
+        <v>2.372</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1421,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G26">
-        <v>2.372</v>
+        <v>1.136</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1462,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.136</v>
+        <v>0.115</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1503,16 +1503,16 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Tonna galea</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TONNGAL</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.115</v>
+        <v>1.15</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1544,19 +1544,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tonna galea</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TONNGAL</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G29">
-        <v>1.15</v>
+        <v>0.873</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Parapenaeus longirostris</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.873</v>
+        <v>0.182</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5.68325</v>
       </c>
     </row>
     <row r="31">
@@ -1626,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Parapenaeus longirostris</t>
+          <t>Alcyonium palmatum</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ALCYPAL</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.182</v>
+        <v>0.012</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>4.4335</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="32">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Alcyonium palmatum</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ALCYPAL</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I32">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="33">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H33">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="34">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Dardanus arrosor</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>DARDARR</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.007</v>
+        <v>0.056</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="35">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Dardanus arrosor</t>
+          <t>Eggs of Murex</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DARDARR</t>
+          <t>EGGSMUR</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.056</v>
+        <v>0.016</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I35">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="36">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Eggs of Tonna</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>EGGSTON</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.016</v>
+        <v>0.006</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="37">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Eggs of Tonna</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EGGSTON</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="38">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Hiatella arctica</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>HIATARC</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="39">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hiatella arctica</t>
+          <t>Liocarcinus depurator</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HIATARC</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.001</v>
+        <v>0.199</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I39">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="40">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.199</v>
+        <v>0.754</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="41">
@@ -2036,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Solenocera membranacea</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SOLOMEM</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.754</v>
+        <v>0.006</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="42">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Solenocera membranacea</t>
+          <t>Sternaspis scutata</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SOLOMEM</t>
+          <t>STERSCU</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="43">
@@ -2118,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sternaspis scutata</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>STERSCU</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="44">
@@ -2159,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trachythyone tergestina</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TRACTER</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
     <row r="45">
@@ -2200,63 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.004</v>
+        <v>0.909</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>7.867000000000001</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G46">
-        <v>0.909</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>7.867000000000001</v>
+        <v>10.3665</v>
       </c>
     </row>
   </sheetData>
